--- a/pred_ohlcv/54_21/2019-11-17 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-17 FX ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>178830.3765</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>178830.3765</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>178830.3765</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>178830.3765</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>175761.3765</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>175761.3765</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>181225.5454</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>183873.7678</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>186831.6376</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>178095.434</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>182173.1827711864</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>222821.2945714286</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>222821.2945714286</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>220181.5243714286</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>220181.5243714286</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>220181.5243714286</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>220181.5243714286</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>220181.5243714286</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>220186.5243714286</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>220175.1144714286</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>214654.387307326</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>214654.387307326</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>214677.685407326</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>209308.653107326</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>209308.653107326</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>207810.001207326</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>215640.707607326</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>215541.707607326</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>209338.606507326</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>209059.661707326</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>229988.949307326</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>229955.212907326</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>233283.212907326</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>233283.212907326</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>233278.212907326</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>244825.922507326</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>241547.299007326</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>232798.800507326</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>242672.665707326</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>242672.665707326</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>242672.665707326</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>242672.665707326</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>227462.185707326</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>214729.874907326</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>214729.874907326</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>203930.641407326</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>203739.091507326</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>424849.7788073259</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>474089.3782073259</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>456932.4164073259</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>460238.3833073259</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>514621.7535776963</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>509091.2399776962</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>509091.2399776962</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>515822.3176776962</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>511468.2350776962</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>511468.2350776962</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>511568.2350776962</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>511568.2350776962</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>511564.2350776962</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>511564.2350776962</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>514818.0597776962</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>465065.4576776962</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>486800.6550776962</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>513795.2611483729</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>501989.1128483729</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>501989.1128483729</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>494272.5756483729</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>507710.8023430699</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>507474.3713430699</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>497177.9245430699</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>497177.9245430699</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>503245.0808430699</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>503258.0808430699</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>503180.7997430699</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>510925.2848599929</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>510925.2848599929</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>510028.6789599929</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>1174171.402048224</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>1125345.815148224</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1136581.241348224</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1060110.635548224</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>1060110.635548224</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>1124512.507248224</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>1124512.507248224</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>1087003.575748224</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>1105569.896548224</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-17 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-17 FX ohlcv.xlsx
@@ -1770,7 +1770,7 @@
         <v>187030.8226</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>178095.434</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>182173.1827711864</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>182168.7827711864</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>195714.1856</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>195709.7856</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>195378.4606</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>194680.4324</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>194685.1079</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>194685.1079</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>199093.348</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>199093.348</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>223303.4226714286</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>222821.2945714286</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>222821.2945714286</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>220181.5243714286</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>220181.5243714286</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>220181.5243714286</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>220181.5243714286</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>220181.5243714286</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>220186.5243714286</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>220175.1144714286</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>214654.387307326</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>214654.387307326</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>214677.685407326</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>209308.653107326</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>209308.653107326</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>207810.001207326</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>215640.707607326</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>215541.707607326</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>207925.111607326</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>209334.306507326</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>209338.606507326</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>209338.606507326</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>209059.661707326</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>209059.661707326</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>211934.920407326</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>230168.284907326</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>229988.949307326</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>229988.949307326</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>229993.949307326</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>229955.212907326</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>233283.212907326</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>233283.212907326</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>233278.212907326</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>242672.665707326</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>242672.665707326</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>242672.665707326</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>242672.665707326</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>227462.185707326</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>227467.185707326</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>214729.874907326</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>214913.170607326</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>212557.012907326</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>203925.641407326</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>203930.641407326</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>203930.641407326</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>197747.692807326</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>424849.7788073259</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>474089.3782073259</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>456932.4164073259</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>460238.3833073259</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>514621.7535776963</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>509091.2399776962</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>509091.2399776962</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>515822.3176776962</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>511468.2350776962</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>511468.2350776962</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>511568.2350776962</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>511568.2350776962</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>511564.2350776962</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>511564.2350776962</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>514818.0597776962</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>465065.4576776962</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>486800.6550776962</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>513795.2611483729</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>501989.1128483729</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>501989.1128483729</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>494272.5756483729</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>507710.8023430699</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>507474.3713430699</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>497177.9245430699</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>497177.9245430699</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>503245.0808430699</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>503258.0808430699</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>503180.7997430699</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>510925.2848599929</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>510925.2848599929</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>510028.6789599929</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>766015.819548224</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>779925.0318482239</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>902624.3630482239</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>1174171.402048224</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>1125345.815148224</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1136581.241348224</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1060110.635548224</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>1060110.635548224</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>1124512.507248224</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>1124512.507248224</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>1087003.575748224</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>1105569.896548224</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
